--- a/src/test/resources/ExcelResultsFolder/Cards.xlsx
+++ b/src/test/resources/ExcelResultsFolder/Cards.xlsx
@@ -1,40 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\IntegrationPSP\Integration\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F89BF50-6F71-4C57-98A8-CC9550DDC39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C7A6A8-E924-4D41-A560-07BA2B31C148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="23" r:id="rId1"/>
-    <sheet name="CardDataForEndtoEndFlow" sheetId="24" r:id="rId2"/>
+    <sheet name="CreateCustomerSession" sheetId="25" r:id="rId2"/>
+    <sheet name="CardDataForEndtoEndFlow" sheetId="24" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>Easybuzz</t>
   </si>
@@ -167,12 +155,48 @@
       <t>Sharma</t>
     </r>
   </si>
+  <si>
+    <t>Nitendra Gautam</t>
+  </si>
+  <si>
+    <t>4051 8856 0044 6623</t>
+  </si>
+  <si>
+    <t>10/28</t>
+  </si>
+  <si>
+    <t>MonnetPeru</t>
+  </si>
+  <si>
+    <t>PEN</t>
+  </si>
+  <si>
+    <t>MinAmount</t>
+  </si>
+  <si>
+    <t>MaxAmount</t>
+  </si>
+  <si>
+    <t>DefaultAmount</t>
+  </si>
+  <si>
+    <t>Ishan Kishan</t>
+  </si>
+  <si>
+    <t>4012001037141112</t>
+  </si>
+  <si>
+    <t>05/30</t>
+  </si>
+  <si>
+    <t>Payu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +241,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -256,6 +292,9 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A047734-60A8-451A-B92F-500542A01A48}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="A4:H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -574,9 +613,11 @@
     <col min="6" max="6" width="17.90625" customWidth="1"/>
     <col min="7" max="7" width="11.90625" customWidth="1"/>
     <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -598,11 +639,20 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -624,11 +674,20 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="b">
+      <c r="H2" s="5">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>100</v>
+      </c>
+      <c r="J2" s="5">
+        <v>10</v>
+      </c>
+      <c r="K2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -650,11 +709,20 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+      <c r="I3" s="5">
+        <v>100</v>
+      </c>
+      <c r="J3" s="5">
+        <v>500</v>
+      </c>
+      <c r="K3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -676,11 +744,20 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5">
+        <v>100</v>
+      </c>
+      <c r="J4" s="5">
+        <v>10</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -702,11 +779,25 @@
       <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="5">
+        <v>100</v>
+      </c>
+      <c r="J5" s="5">
+        <v>500</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="G9" t="s">
         <v>35</v>
       </c>
@@ -718,11 +809,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE785E9-817D-4E9B-B308-F1BE7846862A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5638B9FC-7E5E-4870-A731-709F452B5553}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,10 +838,13 @@
     <col min="6" max="6" width="16.54296875" customWidth="1"/>
     <col min="7" max="7" width="17.90625" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" customWidth="1"/>
+    <col min="12" max="12" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -761,11 +869,20 @@
       <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -790,11 +907,20 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" s="5">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>500</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -819,11 +945,20 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="b">
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
+        <v>100</v>
+      </c>
+      <c r="K3" s="5">
+        <v>500</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -848,11 +983,20 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" t="b">
+      <c r="I4" s="5">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <v>100</v>
+      </c>
+      <c r="K4" s="5">
+        <v>500</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -877,11 +1021,97 @@
       <c r="H5" t="s">
         <v>24</v>
       </c>
-      <c r="I5" t="b">
+      <c r="I5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="5">
+        <v>500</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>123</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="5">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <v>100</v>
+      </c>
+      <c r="K6" s="5">
+        <v>500</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>123</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
+        <v>900</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
